--- a/Experimental_scripts/Lists/repswitch_practice2_version2.xlsx
+++ b/Experimental_scripts/Lists/repswitch_practice2_version2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Experimental_scripts\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E36AB94-3E36-4D06-B997-916D393074D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6243019-EA25-4B40-A228-8A8F080201C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="600" windowWidth="12360" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
@@ -47,51 +47,30 @@
     <t>frameColor</t>
   </si>
   <si>
-    <t>REPSWITCH1_Practice/PICTURE_612.png</t>
-  </si>
-  <si>
     <t>rana</t>
   </si>
   <si>
     <t>TYPE</t>
   </si>
   <si>
-    <t>REPSWITCH1_Practice/PICTURE_599.png</t>
-  </si>
-  <si>
     <t>nube</t>
   </si>
   <si>
     <t>SPEAK</t>
   </si>
   <si>
-    <t>REPSWITCH1_Practice/PICTURE_570.png</t>
-  </si>
-  <si>
     <t>toro</t>
   </si>
   <si>
-    <t>REPSWITCH1_Practice/PICTURE_733.png</t>
-  </si>
-  <si>
     <t>gafas</t>
   </si>
   <si>
-    <t>REPSWITCH1_Practice/PICTURE_614.png</t>
-  </si>
-  <si>
     <t>reina</t>
   </si>
   <si>
-    <t>REPSWITCH1_Practice/PICTURE_110.png</t>
-  </si>
-  <si>
     <t>mesa</t>
   </si>
   <si>
-    <t>REPSWITCH1_Practice/PICTURE_12.png</t>
-  </si>
-  <si>
     <t>sirena</t>
   </si>
   <si>
@@ -102,6 +81,27 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Pictures_Practice/PICTURE_12.png</t>
+  </si>
+  <si>
+    <t>Pictures_Practice/PICTURE_599.png</t>
+  </si>
+  <si>
+    <t>Pictures_Practice/PICTURE_733.png</t>
+  </si>
+  <si>
+    <t>Pictures_Practice/PICTURE_614.png</t>
+  </si>
+  <si>
+    <t>Pictures_Practice/PICTURE_612.png</t>
+  </si>
+  <si>
+    <t>Pictures_Practice/PICTURE_570.png</t>
+  </si>
+  <si>
+    <t>Pictures_Practice/PICTURE_110.png</t>
   </si>
 </sst>
 </file>
@@ -606,173 +606,173 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
